--- a/data/IN/outputs/house_democrats_chamber_votes.xlsx
+++ b/data/IN/outputs/house_democrats_chamber_votes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="9750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,7 +473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
       <selection activeCell="AF1" sqref="AF1:AF32"/>
     </sheetView>
   </sheetViews>

--- a/data/IN/outputs/house_democrats_chamber_votes.xlsx
+++ b/data/IN/outputs/house_democrats_chamber_votes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,7 +473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
       <selection activeCell="AF1" sqref="AF1:AF32"/>
     </sheetView>
   </sheetViews>

--- a/data/IN/outputs/house_democrats_chamber_votes.xlsx
+++ b/data/IN/outputs/house_democrats_chamber_votes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -585,94 +585,94 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.76136363636363635</v>
+        <v>0.76331360946745563</v>
       </c>
       <c r="D2">
-        <v>0.6741573033707865</v>
+        <v>0.67428571428571427</v>
       </c>
       <c r="E2">
-        <v>0.73809523809523814</v>
+        <v>0.76363636363636367</v>
       </c>
       <c r="F2">
-        <v>0.70588235294117652</v>
+        <v>0.71345029239766078</v>
       </c>
       <c r="G2">
-        <v>0.94318181818181823</v>
+        <v>0.91477272727272729</v>
       </c>
       <c r="H2">
-        <v>0.82876712328767121</v>
+        <v>0.83760683760683763</v>
       </c>
       <c r="I2">
-        <v>0.73825503355704702</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="J2">
-        <v>0.92366412213740456</v>
+        <v>0.90825688073394495</v>
       </c>
       <c r="K2">
-        <v>0.91666666666666663</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="L2">
-        <v>0.79333333333333333</v>
+        <v>0.78902953586497893</v>
       </c>
       <c r="M2">
-        <v>0.7567567567567568</v>
+        <v>0.75744680851063828</v>
       </c>
       <c r="N2">
-        <v>0.79333333333333333</v>
+        <v>0.80084745762711862</v>
       </c>
       <c r="O2">
-        <v>0.84328358208955223</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P2">
-        <v>0.50331125827814571</v>
+        <v>0.53556485355648531</v>
       </c>
       <c r="Q2">
         <v>0.82962962962962961</v>
       </c>
       <c r="R2">
-        <v>0.89166666666666672</v>
+        <v>0.91578947368421049</v>
       </c>
       <c r="S2">
-        <v>0.53278688524590168</v>
+        <v>0.54589371980676327</v>
       </c>
       <c r="T2">
-        <v>0.86111111111111116</v>
+        <v>0.85093167701863359</v>
       </c>
       <c r="U2">
-        <v>0.82170542635658916</v>
+        <v>0.81192660550458717</v>
       </c>
       <c r="V2">
-        <v>0.79470198675496684</v>
+        <v>0.8125</v>
       </c>
       <c r="W2">
-        <v>0.8920863309352518</v>
+        <v>0.88105726872246692</v>
       </c>
       <c r="X2">
-        <v>0.90209790209790208</v>
+        <v>0.91341991341991347</v>
       </c>
       <c r="Y2">
         <v>0.80916030534351147</v>
       </c>
       <c r="Z2">
-        <v>0.79432624113475181</v>
+        <v>0.78125</v>
       </c>
       <c r="AA2">
-        <v>0.89726027397260277</v>
+        <v>0.86266094420600858</v>
       </c>
       <c r="AB2">
         <v>0.68243243243243246</v>
       </c>
       <c r="AC2">
-        <v>0.891156462585034</v>
+        <v>0.88461538461538458</v>
       </c>
       <c r="AD2">
-        <v>0.47457627118644069</v>
+        <v>0.52631578947368418</v>
       </c>
       <c r="AE2">
-        <v>0.70666666666666667</v>
+        <v>0.73109243697478987</v>
       </c>
       <c r="AF2">
-        <v>0.8651685393258427</v>
+        <v>0.8539325842696629</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
@@ -680,97 +680,97 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.76136363636363635</v>
+        <v>0.76331360946745563</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.82653061224489799</v>
+        <v>0.79329608938547491</v>
       </c>
       <c r="E3">
-        <v>0.88297872340425532</v>
+        <v>0.87647058823529411</v>
       </c>
       <c r="F3">
-        <v>0.94680851063829785</v>
+        <v>0.86363636363636365</v>
       </c>
       <c r="G3">
-        <v>0.76530612244897955</v>
+        <v>0.79558011049723754</v>
       </c>
       <c r="H3">
-        <v>0.69387755102040816</v>
+        <v>0.70718232044198892</v>
       </c>
       <c r="I3">
-        <v>0.7857142857142857</v>
+        <v>0.71978021978021978</v>
       </c>
       <c r="J3">
-        <v>0.74117647058823533</v>
+        <v>0.74096385542168675</v>
       </c>
       <c r="K3">
-        <v>0.69791666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L3">
-        <v>0.70408163265306123</v>
+        <v>0.7</v>
       </c>
       <c r="M3">
-        <v>0.80208333333333337</v>
+        <v>0.77094972067039103</v>
       </c>
       <c r="N3">
-        <v>0.82653061224489799</v>
+        <v>0.79329608938547491</v>
       </c>
       <c r="O3">
-        <v>0.72941176470588232</v>
+        <v>0.74096385542168675</v>
       </c>
       <c r="P3">
-        <v>0.70707070707070707</v>
+        <v>0.70329670329670335</v>
       </c>
       <c r="Q3">
         <v>0.71739130434782605</v>
       </c>
       <c r="R3">
-        <v>0.76136363636363635</v>
+        <v>0.77564102564102566</v>
       </c>
       <c r="S3">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T3">
-        <v>0.76344086021505375</v>
+        <v>0.77272727272727271</v>
       </c>
       <c r="U3">
-        <v>0.72499999999999998</v>
+        <v>0.72560975609756095</v>
       </c>
       <c r="V3">
-        <v>0.76767676767676762</v>
+        <v>0.7595628415300546</v>
       </c>
       <c r="W3">
-        <v>0.69318181818181823</v>
+        <v>0.77192982456140347</v>
       </c>
       <c r="X3">
-        <v>0.78260869565217395</v>
+        <v>0.77142857142857146</v>
       </c>
       <c r="Y3">
         <v>0.77380952380952384</v>
       </c>
       <c r="Z3">
-        <v>0.87628865979381443</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="AA3">
-        <v>0.75510204081632648</v>
+        <v>0.75418994413407825</v>
       </c>
       <c r="AB3">
         <v>0.865979381443299</v>
       </c>
       <c r="AC3">
-        <v>0.69791666666666663</v>
+        <v>0.7303370786516854</v>
       </c>
       <c r="AD3">
-        <v>0.73529411764705888</v>
+        <v>0.65441176470588236</v>
       </c>
       <c r="AE3">
-        <v>0.79797979797979801</v>
+        <v>0.76373626373626369</v>
       </c>
       <c r="AF3">
-        <v>0.80808080808080807</v>
+        <v>0.79234972677595628</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
@@ -778,97 +778,97 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.6741573033707865</v>
+        <v>0.67428571428571427</v>
       </c>
       <c r="C4">
-        <v>0.82653061224489799</v>
+        <v>0.79329608938547491</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.7978723404255319</v>
+        <v>0.82954545454545459</v>
       </c>
       <c r="F4">
-        <v>0.88297872340425532</v>
+        <v>0.85</v>
       </c>
       <c r="G4">
-        <v>0.66326530612244894</v>
+        <v>0.67741935483870963</v>
       </c>
       <c r="H4">
-        <v>0.67346938775510201</v>
+        <v>0.67914438502673802</v>
       </c>
       <c r="I4">
-        <v>0.7142857142857143</v>
+        <v>0.74866310160427807</v>
       </c>
       <c r="J4">
-        <v>0.6470588235294118</v>
+        <v>0.67251461988304095</v>
       </c>
       <c r="K4">
-        <v>0.61052631578947369</v>
+        <v>0.63218390804597702</v>
       </c>
       <c r="L4">
-        <v>0.68367346938775508</v>
+        <v>0.68648648648648647</v>
       </c>
       <c r="M4">
-        <v>0.73958333333333337</v>
+        <v>0.74863387978142082</v>
       </c>
       <c r="N4">
-        <v>0.75510204081632648</v>
+        <v>0.70652173913043481</v>
       </c>
       <c r="O4">
-        <v>0.6705882352941176</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="P4">
-        <v>0.77777777777777779</v>
+        <v>0.75935828877005351</v>
       </c>
       <c r="Q4">
         <v>0.75</v>
       </c>
       <c r="R4">
-        <v>0.71590909090909094</v>
+        <v>0.68354430379746833</v>
       </c>
       <c r="S4">
-        <v>0.71052631578947367</v>
+        <v>0.72049689440993792</v>
       </c>
       <c r="T4">
-        <v>0.73404255319148937</v>
+        <v>0.73451327433628322</v>
       </c>
       <c r="U4">
-        <v>0.75</v>
+        <v>0.73372781065088755</v>
       </c>
       <c r="V4">
-        <v>0.74747474747474751</v>
+        <v>0.72340425531914898</v>
       </c>
       <c r="W4">
-        <v>0.64772727272727271</v>
+        <v>0.6875</v>
       </c>
       <c r="X4">
-        <v>0.69565217391304346</v>
+        <v>0.70718232044198892</v>
       </c>
       <c r="Y4">
         <v>0.76190476190476186</v>
       </c>
       <c r="Z4">
-        <v>0.80412371134020622</v>
+        <v>0.77094972067039103</v>
       </c>
       <c r="AA4">
-        <v>0.67346938775510201</v>
+        <v>0.66847826086956519</v>
       </c>
       <c r="AB4">
         <v>0.77319587628865982</v>
       </c>
       <c r="AC4">
-        <v>0.65625</v>
+        <v>0.65573770491803274</v>
       </c>
       <c r="AD4">
-        <v>0.72058823529411764</v>
+        <v>0.70921985815602839</v>
       </c>
       <c r="AE4">
-        <v>0.78787878787878785</v>
+        <v>0.73796791443850263</v>
       </c>
       <c r="AF4">
-        <v>0.72727272727272729</v>
+        <v>0.72872340425531912</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -876,13 +876,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.73809523809523814</v>
+        <v>0.76363636363636367</v>
       </c>
       <c r="C5">
-        <v>0.88297872340425532</v>
+        <v>0.87647058823529411</v>
       </c>
       <c r="D5">
-        <v>0.7978723404255319</v>
+        <v>0.82954545454545459</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -891,82 +891,82 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="G5">
-        <v>0.7978723404255319</v>
+        <v>0.8192090395480226</v>
       </c>
       <c r="H5">
-        <v>0.76595744680851063</v>
+        <v>0.77966101694915257</v>
       </c>
       <c r="I5">
-        <v>0.7978723404255319</v>
+        <v>0.7752808988764045</v>
       </c>
       <c r="J5">
-        <v>0.7407407407407407</v>
+        <v>0.77160493827160492</v>
       </c>
       <c r="K5">
-        <v>0.7142857142857143</v>
+        <v>0.69696969696969702</v>
       </c>
       <c r="L5">
-        <v>0.76595744680851063</v>
+        <v>0.73863636363636365</v>
       </c>
       <c r="M5">
-        <v>0.79347826086956519</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="N5">
-        <v>0.77659574468085102</v>
+        <v>0.76571428571428568</v>
       </c>
       <c r="O5">
-        <v>0.72839506172839508</v>
+        <v>0.75316455696202533</v>
       </c>
       <c r="P5">
-        <v>0.74736842105263157</v>
+        <v>0.7359550561797753</v>
       </c>
       <c r="Q5">
         <v>0.7640449438202247</v>
       </c>
       <c r="R5">
-        <v>0.75294117647058822</v>
+        <v>0.7814569536423841</v>
       </c>
       <c r="S5">
-        <v>0.78378378378378377</v>
+        <v>0.70967741935483875</v>
       </c>
       <c r="T5">
-        <v>0.7752808988764045</v>
+        <v>0.79439252336448596</v>
       </c>
       <c r="U5">
-        <v>0.75324675324675328</v>
+        <v>0.77018633540372672</v>
       </c>
       <c r="V5">
-        <v>0.71578947368421053</v>
+        <v>0.71508379888268159</v>
       </c>
       <c r="W5">
-        <v>0.7142857142857143</v>
+        <v>0.78443113772455086</v>
       </c>
       <c r="X5">
-        <v>0.75</v>
+        <v>0.75438596491228072</v>
       </c>
       <c r="Y5">
         <v>0.78749999999999998</v>
       </c>
       <c r="Z5">
-        <v>0.84946236559139787</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="AA5">
-        <v>0.72631578947368425</v>
+        <v>0.7344632768361582</v>
       </c>
       <c r="AB5">
         <v>0.82795698924731187</v>
       </c>
       <c r="AC5">
-        <v>0.70652173913043481</v>
+        <v>0.73142857142857143</v>
       </c>
       <c r="AD5">
-        <v>0.71641791044776115</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AE5">
-        <v>0.75789473684210529</v>
+        <v>0.7471910112359551</v>
       </c>
       <c r="AF5">
-        <v>0.76842105263157889</v>
+        <v>0.77094972067039103</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
@@ -974,13 +974,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.70588235294117652</v>
+        <v>0.71345029239766078</v>
       </c>
       <c r="C6">
-        <v>0.94680851063829785</v>
+        <v>0.86363636363636365</v>
       </c>
       <c r="D6">
-        <v>0.88297872340425532</v>
+        <v>0.85</v>
       </c>
       <c r="E6">
         <v>0.88888888888888884</v>
@@ -989,82 +989,82 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.72340425531914898</v>
+        <v>0.75274725274725274</v>
       </c>
       <c r="H6">
-        <v>0.68085106382978722</v>
+        <v>0.70329670329670335</v>
       </c>
       <c r="I6">
-        <v>0.77659574468085102</v>
+        <v>0.77049180327868849</v>
       </c>
       <c r="J6">
-        <v>0.69135802469135799</v>
+        <v>0.73053892215568861</v>
       </c>
       <c r="K6">
-        <v>0.67032967032967028</v>
+        <v>0.68235294117647061</v>
       </c>
       <c r="L6">
-        <v>0.68085106382978722</v>
+        <v>0.6795580110497238</v>
       </c>
       <c r="M6">
-        <v>0.77173913043478259</v>
+        <v>0.7944444444444444</v>
       </c>
       <c r="N6">
-        <v>0.80851063829787229</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="O6">
-        <v>0.69135802469135799</v>
+        <v>0.69938650306748462</v>
       </c>
       <c r="P6">
-        <v>0.74736842105263157</v>
+        <v>0.74863387978142082</v>
       </c>
       <c r="Q6">
         <v>0.71590909090909094</v>
       </c>
       <c r="R6">
-        <v>0.72941176470588232</v>
+        <v>0.73248407643312097</v>
       </c>
       <c r="S6">
-        <v>0.77027027027027029</v>
+        <v>0.69182389937106914</v>
       </c>
       <c r="T6">
-        <v>0.7528089887640449</v>
+        <v>0.7570093457943925</v>
       </c>
       <c r="U6">
-        <v>0.7142857142857143</v>
+        <v>0.7168674698795181</v>
       </c>
       <c r="V6">
-        <v>0.74736842105263157</v>
+        <v>0.70108695652173914</v>
       </c>
       <c r="W6">
-        <v>0.6785714285714286</v>
+        <v>0.72674418604651159</v>
       </c>
       <c r="X6">
-        <v>0.71590909090909094</v>
+        <v>0.70454545454545459</v>
       </c>
       <c r="Y6">
         <v>0.75</v>
       </c>
       <c r="Z6">
-        <v>0.82795698924731187</v>
+        <v>0.75568181818181823</v>
       </c>
       <c r="AA6">
-        <v>0.7021276595744681</v>
+        <v>0.7055555555555556</v>
       </c>
       <c r="AB6">
         <v>0.86021505376344087</v>
       </c>
       <c r="AC6">
-        <v>0.67391304347826086</v>
+        <v>0.69273743016759781</v>
       </c>
       <c r="AD6">
-        <v>0.765625</v>
+        <v>0.68613138686131392</v>
       </c>
       <c r="AE6">
-        <v>0.76842105263157889</v>
+        <v>0.7595628415300546</v>
       </c>
       <c r="AF6">
-        <v>0.74736842105263157</v>
+        <v>0.75543478260869568</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -1072,97 +1072,97 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.94318181818181823</v>
+        <v>0.91477272727272729</v>
       </c>
       <c r="C7">
-        <v>0.76530612244897955</v>
+        <v>0.79558011049723754</v>
       </c>
       <c r="D7">
-        <v>0.66326530612244894</v>
+        <v>0.67741935483870963</v>
       </c>
       <c r="E7">
-        <v>0.7978723404255319</v>
+        <v>0.8192090395480226</v>
       </c>
       <c r="F7">
-        <v>0.72340425531914898</v>
+        <v>0.75274725274725274</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.87755102040816324</v>
+        <v>0.88297872340425532</v>
       </c>
       <c r="I7">
-        <v>0.72448979591836737</v>
+        <v>0.70370370370370372</v>
       </c>
       <c r="J7">
-        <v>0.90697674418604646</v>
+        <v>0.89655172413793105</v>
       </c>
       <c r="K7">
-        <v>0.88421052631578945</v>
+        <v>0.8125</v>
       </c>
       <c r="L7">
-        <v>0.81632653061224492</v>
+        <v>0.79679144385026734</v>
       </c>
       <c r="M7">
-        <v>0.79166666666666663</v>
+        <v>0.77297297297297296</v>
       </c>
       <c r="N7">
-        <v>0.80612244897959184</v>
+        <v>0.80645161290322576</v>
       </c>
       <c r="O7">
-        <v>0.82558139534883723</v>
+        <v>0.8294117647058824</v>
       </c>
       <c r="P7">
-        <v>0.64646464646464652</v>
+        <v>0.64550264550264547</v>
       </c>
       <c r="Q7">
         <v>0.81521739130434778</v>
       </c>
       <c r="R7">
-        <v>0.92045454545454541</v>
+        <v>0.92546583850931674</v>
       </c>
       <c r="S7">
-        <v>0.61038961038961037</v>
+        <v>0.57926829268292679</v>
       </c>
       <c r="T7">
-        <v>0.80645161290322576</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="U7">
-        <v>0.85</v>
+        <v>0.83040935672514615</v>
       </c>
       <c r="V7">
-        <v>0.79797979797979801</v>
+        <v>0.82105263157894737</v>
       </c>
       <c r="W7">
-        <v>0.9213483146067416</v>
+        <v>0.93296089385474856</v>
       </c>
       <c r="X7">
-        <v>0.90217391304347827</v>
+        <v>0.88461538461538458</v>
       </c>
       <c r="Y7">
         <v>0.77647058823529413</v>
       </c>
       <c r="Z7">
-        <v>0.75257731958762886</v>
+        <v>0.72375690607734811</v>
       </c>
       <c r="AA7">
-        <v>0.88775510204081631</v>
+        <v>0.87634408602150538</v>
       </c>
       <c r="AB7">
         <v>0.72164948453608246</v>
       </c>
       <c r="AC7">
-        <v>0.875</v>
+        <v>0.9027027027027027</v>
       </c>
       <c r="AD7">
-        <v>0.60869565217391308</v>
+        <v>0.58741258741258739</v>
       </c>
       <c r="AE7">
-        <v>0.73737373737373735</v>
+        <v>0.75132275132275128</v>
       </c>
       <c r="AF7">
-        <v>0.85858585858585856</v>
+        <v>0.85263157894736841</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
@@ -1170,97 +1170,97 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.82876712328767121</v>
+        <v>0.83760683760683763</v>
       </c>
       <c r="C8">
-        <v>0.69387755102040816</v>
+        <v>0.70718232044198892</v>
       </c>
       <c r="D8">
-        <v>0.67346938775510201</v>
+        <v>0.67914438502673802</v>
       </c>
       <c r="E8">
-        <v>0.76595744680851063</v>
+        <v>0.77966101694915257</v>
       </c>
       <c r="F8">
-        <v>0.68085106382978722</v>
+        <v>0.70329670329670335</v>
       </c>
       <c r="G8">
-        <v>0.87755102040816324</v>
+        <v>0.88297872340425532</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.79518072289156627</v>
+        <v>0.78210116731517509</v>
       </c>
       <c r="J8">
-        <v>0.80689655172413788</v>
+        <v>0.84120171673819744</v>
       </c>
       <c r="K8">
-        <v>0.85135135135135132</v>
+        <v>0.80349344978165937</v>
       </c>
       <c r="L8">
-        <v>0.79041916167664672</v>
+        <v>0.80078125</v>
       </c>
       <c r="M8">
-        <v>0.83636363636363631</v>
+        <v>0.80314960629921262</v>
       </c>
       <c r="N8">
-        <v>0.77710843373493976</v>
+        <v>0.79921259842519687</v>
       </c>
       <c r="O8">
-        <v>0.79865771812080533</v>
+        <v>0.8283261802575107</v>
       </c>
       <c r="P8">
-        <v>0.64880952380952384</v>
+        <v>0.63565891472868219</v>
       </c>
       <c r="Q8">
         <v>0.78807947019867552</v>
       </c>
       <c r="R8">
-        <v>0.82222222222222219</v>
+        <v>0.84057971014492749</v>
       </c>
       <c r="S8">
-        <v>0.64179104477611937</v>
+        <v>0.62895927601809953</v>
       </c>
       <c r="T8">
-        <v>0.82692307692307687</v>
+        <v>0.82857142857142863</v>
       </c>
       <c r="U8">
-        <v>0.84246575342465757</v>
+        <v>0.86497890295358648</v>
       </c>
       <c r="V8">
-        <v>0.73809523809523814</v>
+        <v>0.76447876447876451</v>
       </c>
       <c r="W8">
-        <v>0.82692307692307687</v>
+        <v>0.84552845528455289</v>
       </c>
       <c r="X8">
-        <v>0.83750000000000002</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="Y8">
         <v>0.74496644295302017</v>
       </c>
       <c r="Z8">
-        <v>0.76729559748427678</v>
+        <v>0.74485596707818935</v>
       </c>
       <c r="AA8">
-        <v>0.82317073170731703</v>
+        <v>0.82936507936507942</v>
       </c>
       <c r="AB8">
         <v>0.73939393939393938</v>
       </c>
       <c r="AC8">
-        <v>0.83030303030303032</v>
+        <v>0.85433070866141736</v>
       </c>
       <c r="AD8">
-        <v>0.59848484848484851</v>
+        <v>0.60679611650485432</v>
       </c>
       <c r="AE8">
-        <v>0.80239520958083832</v>
+        <v>0.79377431906614782</v>
       </c>
       <c r="AF8">
-        <v>0.81818181818181823</v>
+        <v>0.82105263157894737</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
@@ -1268,97 +1268,97 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.73825503355704702</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C9">
-        <v>0.7857142857142857</v>
+        <v>0.71978021978021978</v>
       </c>
       <c r="D9">
-        <v>0.7142857142857143</v>
+        <v>0.74866310160427807</v>
       </c>
       <c r="E9">
-        <v>0.7978723404255319</v>
+        <v>0.7752808988764045</v>
       </c>
       <c r="F9">
-        <v>0.77659574468085102</v>
+        <v>0.77049180327868849</v>
       </c>
       <c r="G9">
-        <v>0.72448979591836737</v>
+        <v>0.70370370370370372</v>
       </c>
       <c r="H9">
-        <v>0.79518072289156627</v>
+        <v>0.78210116731517509</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.71333333333333337</v>
+        <v>0.71548117154811719</v>
       </c>
       <c r="K9">
-        <v>0.80132450331125826</v>
+        <v>0.77682403433476399</v>
       </c>
       <c r="L9">
-        <v>0.73837209302325579</v>
+        <v>0.74045801526717558</v>
       </c>
       <c r="M9">
-        <v>0.7751479289940828</v>
+        <v>0.76061776061776065</v>
       </c>
       <c r="N9">
-        <v>0.76023391812865493</v>
+        <v>0.72692307692307689</v>
       </c>
       <c r="O9">
-        <v>0.79738562091503273</v>
+        <v>0.75630252100840334</v>
       </c>
       <c r="P9">
-        <v>0.70348837209302328</v>
+        <v>0.71863117870722437</v>
       </c>
       <c r="Q9">
         <v>0.73376623376623373</v>
       </c>
       <c r="R9">
-        <v>0.75912408759124084</v>
+        <v>0.71904761904761905</v>
       </c>
       <c r="S9">
-        <v>0.7007299270072993</v>
+        <v>0.7155555555555555</v>
       </c>
       <c r="T9">
-        <v>0.79874213836477992</v>
+        <v>0.7865168539325843</v>
       </c>
       <c r="U9">
-        <v>0.8</v>
+        <v>0.77272727272727271</v>
       </c>
       <c r="V9">
-        <v>0.75</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="W9">
-        <v>0.72670807453416153</v>
+        <v>0.71825396825396826</v>
       </c>
       <c r="X9">
-        <v>0.76219512195121952</v>
+        <v>0.74901960784313726</v>
       </c>
       <c r="Y9">
         <v>0.76666666666666672</v>
       </c>
       <c r="Z9">
-        <v>0.78260869565217395</v>
+        <v>0.76829268292682928</v>
       </c>
       <c r="AA9">
-        <v>0.73652694610778446</v>
+        <v>0.69921875</v>
       </c>
       <c r="AB9">
         <v>0.80588235294117649</v>
       </c>
       <c r="AC9">
-        <v>0.75147928994082835</v>
+        <v>0.73359073359073357</v>
       </c>
       <c r="AD9">
-        <v>0.68888888888888888</v>
+        <v>0.69047619047619047</v>
       </c>
       <c r="AE9">
-        <v>0.80116959064327486</v>
+        <v>0.77862595419847325</v>
       </c>
       <c r="AF9">
-        <v>0.74747474747474751</v>
+        <v>0.73298429319371727</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
@@ -1366,97 +1366,97 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.92366412213740456</v>
+        <v>0.90825688073394495</v>
       </c>
       <c r="C10">
-        <v>0.74117647058823533</v>
+        <v>0.74096385542168675</v>
       </c>
       <c r="D10">
-        <v>0.6470588235294118</v>
+        <v>0.67251461988304095</v>
       </c>
       <c r="E10">
-        <v>0.7407407407407407</v>
+        <v>0.77160493827160492</v>
       </c>
       <c r="F10">
-        <v>0.69135802469135799</v>
+        <v>0.73053892215568861</v>
       </c>
       <c r="G10">
-        <v>0.90697674418604646</v>
+        <v>0.89655172413793105</v>
       </c>
       <c r="H10">
-        <v>0.80689655172413788</v>
+        <v>0.84120171673819744</v>
       </c>
       <c r="I10">
-        <v>0.71333333333333337</v>
+        <v>0.71548117154811719</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.86923076923076925</v>
+        <v>0.82775119617224879</v>
       </c>
       <c r="L10">
-        <v>0.82781456953642385</v>
+        <v>0.82773109243697474</v>
       </c>
       <c r="M10">
-        <v>0.7567567567567568</v>
+        <v>0.7531914893617021</v>
       </c>
       <c r="N10">
-        <v>0.75496688741721851</v>
+        <v>0.77310924369747902</v>
       </c>
       <c r="O10">
-        <v>0.88194444444444442</v>
+        <v>0.8584070796460177</v>
       </c>
       <c r="P10">
-        <v>0.56953642384105962</v>
+        <v>0.58577405857740583</v>
       </c>
       <c r="Q10">
         <v>0.82733812949640284</v>
       </c>
       <c r="R10">
-        <v>0.86776859504132231</v>
+        <v>0.86387434554973819</v>
       </c>
       <c r="S10">
-        <v>0.57480314960629919</v>
+        <v>0.58018867924528306</v>
       </c>
       <c r="T10">
-        <v>0.852112676056338</v>
+        <v>0.85</v>
       </c>
       <c r="U10">
-        <v>0.79230769230769227</v>
+        <v>0.81278538812785384</v>
       </c>
       <c r="V10">
-        <v>0.79470198675496684</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="W10">
-        <v>0.87333333333333329</v>
+        <v>0.87394957983193278</v>
       </c>
       <c r="X10">
-        <v>0.89795918367346939</v>
+        <v>0.88085106382978728</v>
       </c>
       <c r="Y10">
         <v>0.77464788732394363</v>
       </c>
       <c r="Z10">
-        <v>0.75342465753424659</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="AA10">
-        <v>0.89795918367346939</v>
+        <v>0.87606837606837606</v>
       </c>
       <c r="AB10">
         <v>0.71140939597315433</v>
       </c>
       <c r="AC10">
-        <v>0.87248322147651003</v>
+        <v>0.8728813559322034</v>
       </c>
       <c r="AD10">
-        <v>0.53174603174603174</v>
+        <v>0.55778894472361806</v>
       </c>
       <c r="AE10">
-        <v>0.74</v>
+        <v>0.73949579831932777</v>
       </c>
       <c r="AF10">
-        <v>0.86046511627906974</v>
+        <v>0.84571428571428575</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
@@ -1464,97 +1464,97 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.91666666666666663</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="C11">
-        <v>0.69791666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D11">
-        <v>0.61052631578947369</v>
+        <v>0.63218390804597702</v>
       </c>
       <c r="E11">
-        <v>0.7142857142857143</v>
+        <v>0.69696969696969702</v>
       </c>
       <c r="F11">
-        <v>0.67032967032967028</v>
+        <v>0.68235294117647061</v>
       </c>
       <c r="G11">
-        <v>0.88421052631578945</v>
+        <v>0.8125</v>
       </c>
       <c r="H11">
-        <v>0.85135135135135132</v>
+        <v>0.80349344978165937</v>
       </c>
       <c r="I11">
-        <v>0.80132450331125826</v>
+        <v>0.77682403433476399</v>
       </c>
       <c r="J11">
-        <v>0.86923076923076925</v>
+        <v>0.82775119617224879</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.76158940397350994</v>
+        <v>0.77489177489177485</v>
       </c>
       <c r="M11">
-        <v>0.77181208053691275</v>
+        <v>0.72489082969432317</v>
       </c>
       <c r="N11">
-        <v>0.77333333333333332</v>
+        <v>0.75652173913043474</v>
       </c>
       <c r="O11">
-        <v>0.81481481481481477</v>
+        <v>0.75829383886255919</v>
       </c>
       <c r="P11">
-        <v>0.59868421052631582</v>
+        <v>0.61965811965811968</v>
       </c>
       <c r="Q11">
         <v>0.79259259259259263</v>
       </c>
       <c r="R11">
-        <v>0.84251968503937003</v>
+        <v>0.7989690721649485</v>
       </c>
       <c r="S11">
-        <v>0.65</v>
+        <v>0.6767676767676768</v>
       </c>
       <c r="T11">
-        <v>0.8380281690140845</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="U11">
-        <v>0.81538461538461537</v>
+        <v>0.77830188679245282</v>
       </c>
       <c r="V11">
-        <v>0.74342105263157898</v>
+        <v>0.73931623931623935</v>
       </c>
       <c r="W11">
-        <v>0.82978723404255317</v>
+        <v>0.78828828828828834</v>
       </c>
       <c r="X11">
-        <v>0.88275862068965516</v>
+        <v>0.82743362831858402</v>
       </c>
       <c r="Y11">
         <v>0.76296296296296295</v>
       </c>
       <c r="Z11">
-        <v>0.80419580419580416</v>
+        <v>0.78082191780821919</v>
       </c>
       <c r="AA11">
-        <v>0.86</v>
+        <v>0.83406113537117899</v>
       </c>
       <c r="AB11">
         <v>0.68666666666666665</v>
       </c>
       <c r="AC11">
-        <v>0.81756756756756754</v>
+        <v>0.80263157894736847</v>
       </c>
       <c r="AD11">
-        <v>0.55555555555555558</v>
+        <v>0.61827956989247312</v>
       </c>
       <c r="AE11">
-        <v>0.71523178807947019</v>
+        <v>0.68965517241379315</v>
       </c>
       <c r="AF11">
-        <v>0.78125</v>
+        <v>0.7415730337078652</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
@@ -1562,97 +1562,97 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.79333333333333333</v>
+        <v>0.78902953586497893</v>
       </c>
       <c r="C12">
-        <v>0.70408163265306123</v>
+        <v>0.7</v>
       </c>
       <c r="D12">
-        <v>0.68367346938775508</v>
+        <v>0.68648648648648647</v>
       </c>
       <c r="E12">
-        <v>0.76595744680851063</v>
+        <v>0.73863636363636365</v>
       </c>
       <c r="F12">
-        <v>0.68085106382978722</v>
+        <v>0.6795580110497238</v>
       </c>
       <c r="G12">
-        <v>0.81632653061224492</v>
+        <v>0.79679144385026734</v>
       </c>
       <c r="H12">
-        <v>0.79041916167664672</v>
+        <v>0.80078125</v>
       </c>
       <c r="I12">
-        <v>0.73837209302325579</v>
+        <v>0.74045801526717558</v>
       </c>
       <c r="J12">
-        <v>0.82781456953642385</v>
+        <v>0.82773109243697474</v>
       </c>
       <c r="K12">
-        <v>0.76158940397350994</v>
+        <v>0.77489177489177485</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.79411764705882348</v>
+        <v>0.76356589147286824</v>
       </c>
       <c r="N12">
-        <v>0.7441860465116279</v>
+        <v>0.73745173745173742</v>
       </c>
       <c r="O12">
-        <v>0.81168831168831168</v>
+        <v>0.79831932773109249</v>
       </c>
       <c r="P12">
-        <v>0.61849710982658956</v>
+        <v>0.61832061068702293</v>
       </c>
       <c r="Q12">
         <v>0.78064516129032258</v>
       </c>
       <c r="R12">
-        <v>0.76642335766423353</v>
+        <v>0.76076555023923442</v>
       </c>
       <c r="S12">
-        <v>0.62318840579710144</v>
+        <v>0.6294642857142857</v>
       </c>
       <c r="T12">
-        <v>0.78125</v>
+        <v>0.7865168539325843</v>
       </c>
       <c r="U12">
-        <v>0.81456953642384111</v>
+        <v>0.81327800829875518</v>
       </c>
       <c r="V12">
-        <v>0.76878612716763006</v>
+        <v>0.77186311787072248</v>
       </c>
       <c r="W12">
-        <v>0.79012345679012341</v>
+        <v>0.79681274900398402</v>
       </c>
       <c r="X12">
-        <v>0.78181818181818186</v>
+        <v>0.79527559055118113</v>
       </c>
       <c r="Y12">
         <v>0.7483443708609272</v>
       </c>
       <c r="Z12">
-        <v>0.7407407407407407</v>
+        <v>0.73877551020408161</v>
       </c>
       <c r="AA12">
-        <v>0.76190476190476186</v>
+        <v>0.78431372549019607</v>
       </c>
       <c r="AB12">
         <v>0.71345029239766078</v>
       </c>
       <c r="AC12">
-        <v>0.78235294117647058</v>
+        <v>0.79844961240310075</v>
       </c>
       <c r="AD12">
-        <v>0.625</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="AE12">
-        <v>0.76162790697674421</v>
+        <v>0.76245210727969348</v>
       </c>
       <c r="AF12">
-        <v>0.83838383838383834</v>
+        <v>0.80423280423280419</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
@@ -1660,97 +1660,97 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.7567567567567568</v>
+        <v>0.75744680851063828</v>
       </c>
       <c r="C13">
-        <v>0.80208333333333337</v>
+        <v>0.77094972067039103</v>
       </c>
       <c r="D13">
-        <v>0.73958333333333337</v>
+        <v>0.74863387978142082</v>
       </c>
       <c r="E13">
-        <v>0.79347826086956519</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="F13">
-        <v>0.77173913043478259</v>
+        <v>0.7944444444444444</v>
       </c>
       <c r="G13">
-        <v>0.79166666666666663</v>
+        <v>0.77297297297297296</v>
       </c>
       <c r="H13">
-        <v>0.83636363636363631</v>
+        <v>0.80314960629921262</v>
       </c>
       <c r="I13">
-        <v>0.7751479289940828</v>
+        <v>0.76061776061776065</v>
       </c>
       <c r="J13">
-        <v>0.7567567567567568</v>
+        <v>0.7531914893617021</v>
       </c>
       <c r="K13">
-        <v>0.77181208053691275</v>
+        <v>0.72489082969432317</v>
       </c>
       <c r="L13">
-        <v>0.79411764705882348</v>
+        <v>0.76356589147286824</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>0.78698224852071008</v>
+        <v>0.765625</v>
       </c>
       <c r="O13">
-        <v>0.80263157894736847</v>
+        <v>0.82127659574468082</v>
       </c>
       <c r="P13">
-        <v>0.68421052631578949</v>
+        <v>0.7038461538461539</v>
       </c>
       <c r="Q13">
         <v>0.77777777777777779</v>
       </c>
       <c r="R13">
-        <v>0.75555555555555554</v>
+        <v>0.75362318840579712</v>
       </c>
       <c r="S13">
-        <v>0.65441176470588236</v>
+        <v>0.64414414414414412</v>
       </c>
       <c r="T13">
-        <v>0.79746835443037978</v>
+        <v>0.77966101694915257</v>
       </c>
       <c r="U13">
-        <v>0.79865771812080533</v>
+        <v>0.76569037656903771</v>
       </c>
       <c r="V13">
-        <v>0.76608187134502925</v>
+        <v>0.75478927203065138</v>
       </c>
       <c r="W13">
-        <v>0.74213836477987416</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="X13">
-        <v>0.80981595092024539</v>
+        <v>0.79365079365079361</v>
       </c>
       <c r="Y13">
         <v>0.75167785234899331</v>
       </c>
       <c r="Z13">
-        <v>0.73124999999999996</v>
+        <v>0.72427983539094654</v>
       </c>
       <c r="AA13">
-        <v>0.74096385542168675</v>
+        <v>0.71541501976284583</v>
       </c>
       <c r="AB13">
         <v>0.77976190476190477</v>
       </c>
       <c r="AC13">
-        <v>0.74850299401197606</v>
+        <v>0.72941176470588232</v>
       </c>
       <c r="AD13">
-        <v>0.66165413533834583</v>
+        <v>0.66990291262135926</v>
       </c>
       <c r="AE13">
-        <v>0.83529411764705885</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AF13">
-        <v>0.84536082474226804</v>
+        <v>0.82887700534759357</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
@@ -1758,97 +1758,97 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.79333333333333333</v>
+        <v>0.80084745762711862</v>
       </c>
       <c r="C14">
-        <v>0.82653061224489799</v>
+        <v>0.79329608938547491</v>
       </c>
       <c r="D14">
-        <v>0.75510204081632648</v>
+        <v>0.70652173913043481</v>
       </c>
       <c r="E14">
-        <v>0.77659574468085102</v>
+        <v>0.76571428571428568</v>
       </c>
       <c r="F14">
-        <v>0.80851063829787229</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="G14">
-        <v>0.80612244897959184</v>
+        <v>0.80645161290322576</v>
       </c>
       <c r="H14">
-        <v>0.77710843373493976</v>
+        <v>0.79921259842519687</v>
       </c>
       <c r="I14">
-        <v>0.76023391812865493</v>
+        <v>0.72692307692307689</v>
       </c>
       <c r="J14">
-        <v>0.75496688741721851</v>
+        <v>0.77310924369747902</v>
       </c>
       <c r="K14">
-        <v>0.77333333333333332</v>
+        <v>0.75652173913043474</v>
       </c>
       <c r="L14">
-        <v>0.7441860465116279</v>
+        <v>0.73745173745173742</v>
       </c>
       <c r="M14">
-        <v>0.78698224852071008</v>
+        <v>0.765625</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
-        <v>0.77124183006535951</v>
+        <v>0.77446808510638299</v>
       </c>
       <c r="P14">
-        <v>0.68023255813953487</v>
+        <v>0.67049808429118773</v>
       </c>
       <c r="Q14">
         <v>0.72077922077922074</v>
       </c>
       <c r="R14">
-        <v>0.79562043795620441</v>
+        <v>0.79326923076923073</v>
       </c>
       <c r="S14">
-        <v>0.65942028985507251</v>
+        <v>0.64125560538116588</v>
       </c>
       <c r="T14">
-        <v>0.76729559748427678</v>
+        <v>0.7584269662921348</v>
       </c>
       <c r="U14">
-        <v>0.79333333333333333</v>
+        <v>0.78242677824267781</v>
       </c>
       <c r="V14">
-        <v>0.76162790697674421</v>
+        <v>0.75478927203065138</v>
       </c>
       <c r="W14">
-        <v>0.77018633540372672</v>
+        <v>0.77510040160642568</v>
       </c>
       <c r="X14">
-        <v>0.79268292682926833</v>
+        <v>0.78968253968253965</v>
       </c>
       <c r="Y14">
         <v>0.7533333333333333</v>
       </c>
       <c r="Z14">
-        <v>0.77018633540372672</v>
+        <v>0.73662551440329216</v>
       </c>
       <c r="AA14">
-        <v>0.77844311377245512</v>
+        <v>0.77470355731225293</v>
       </c>
       <c r="AB14">
         <v>0.75882352941176467</v>
       </c>
       <c r="AC14">
-        <v>0.7751479289940828</v>
+        <v>0.76953125</v>
       </c>
       <c r="AD14">
-        <v>0.64444444444444449</v>
+        <v>0.6376811594202898</v>
       </c>
       <c r="AE14">
-        <v>0.79532163742690054</v>
+        <v>0.78764478764478763</v>
       </c>
       <c r="AF14">
-        <v>0.84848484848484851</v>
+        <v>0.80851063829787229</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
@@ -1856,97 +1856,97 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.84328358208955223</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C15">
-        <v>0.72941176470588232</v>
+        <v>0.74096385542168675</v>
       </c>
       <c r="D15">
-        <v>0.6705882352941176</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="E15">
-        <v>0.72839506172839508</v>
+        <v>0.75316455696202533</v>
       </c>
       <c r="F15">
-        <v>0.69135802469135799</v>
+        <v>0.69938650306748462</v>
       </c>
       <c r="G15">
-        <v>0.82558139534883723</v>
+        <v>0.8294117647058824</v>
       </c>
       <c r="H15">
-        <v>0.79865771812080533</v>
+        <v>0.8283261802575107</v>
       </c>
       <c r="I15">
-        <v>0.79738562091503273</v>
+        <v>0.75630252100840334</v>
       </c>
       <c r="J15">
-        <v>0.88194444444444442</v>
+        <v>0.8584070796460177</v>
       </c>
       <c r="K15">
-        <v>0.81481481481481477</v>
+        <v>0.75829383886255919</v>
       </c>
       <c r="L15">
-        <v>0.81168831168831168</v>
+        <v>0.79831932773109249</v>
       </c>
       <c r="M15">
-        <v>0.80263157894736847</v>
+        <v>0.82127659574468082</v>
       </c>
       <c r="N15">
-        <v>0.77124183006535951</v>
+        <v>0.77446808510638299</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15">
-        <v>0.64516129032258063</v>
+        <v>0.63598326359832635</v>
       </c>
       <c r="Q15">
         <v>0.84285714285714286</v>
       </c>
       <c r="R15">
-        <v>0.84297520661157022</v>
+        <v>0.83597883597883593</v>
       </c>
       <c r="S15">
-        <v>0.62992125984251968</v>
+        <v>0.62019230769230771</v>
       </c>
       <c r="T15">
-        <v>0.88111888111888115</v>
+        <v>0.88198757763975155</v>
       </c>
       <c r="U15">
-        <v>0.78358208955223885</v>
+        <v>0.79908675799086759</v>
       </c>
       <c r="V15">
-        <v>0.79354838709677422</v>
+        <v>0.79583333333333328</v>
       </c>
       <c r="W15">
-        <v>0.83766233766233766</v>
+        <v>0.84453781512605042</v>
       </c>
       <c r="X15">
-        <v>0.87333333333333329</v>
+        <v>0.8595744680851064</v>
       </c>
       <c r="Y15">
         <v>0.7931034482758621</v>
       </c>
       <c r="Z15">
-        <v>0.72413793103448276</v>
+        <v>0.72197309417040356</v>
       </c>
       <c r="AA15">
-        <v>0.85430463576158944</v>
+        <v>0.83261802575107291</v>
       </c>
       <c r="AB15">
         <v>0.71052631578947367</v>
       </c>
       <c r="AC15">
-        <v>0.85526315789473684</v>
+        <v>0.84680851063829787</v>
       </c>
       <c r="AD15">
-        <v>0.5968992248062015</v>
+        <v>0.61616161616161613</v>
       </c>
       <c r="AE15">
-        <v>0.7857142857142857</v>
+        <v>0.80672268907563027</v>
       </c>
       <c r="AF15">
-        <v>0.87209302325581395</v>
+        <v>0.85380116959064323</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
@@ -1954,46 +1954,46 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.50331125827814571</v>
+        <v>0.53556485355648531</v>
       </c>
       <c r="C16">
-        <v>0.70707070707070707</v>
+        <v>0.70329670329670335</v>
       </c>
       <c r="D16">
-        <v>0.77777777777777779</v>
+        <v>0.75935828877005351</v>
       </c>
       <c r="E16">
-        <v>0.74736842105263157</v>
+        <v>0.7359550561797753</v>
       </c>
       <c r="F16">
-        <v>0.74736842105263157</v>
+        <v>0.74863387978142082</v>
       </c>
       <c r="G16">
-        <v>0.64646464646464652</v>
+        <v>0.64550264550264547</v>
       </c>
       <c r="H16">
-        <v>0.64880952380952384</v>
+        <v>0.63565891472868219</v>
       </c>
       <c r="I16">
-        <v>0.70348837209302328</v>
+        <v>0.71863117870722437</v>
       </c>
       <c r="J16">
-        <v>0.56953642384105962</v>
+        <v>0.58577405857740583</v>
       </c>
       <c r="K16">
-        <v>0.59868421052631582</v>
+        <v>0.61965811965811968</v>
       </c>
       <c r="L16">
-        <v>0.61849710982658956</v>
+        <v>0.61832061068702293</v>
       </c>
       <c r="M16">
-        <v>0.68421052631578949</v>
+        <v>0.7038461538461539</v>
       </c>
       <c r="N16">
-        <v>0.68023255813953487</v>
+        <v>0.67049808429118773</v>
       </c>
       <c r="O16">
-        <v>0.64516129032258063</v>
+        <v>0.63598326359832635</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -2002,49 +2002,49 @@
         <v>0.57692307692307687</v>
       </c>
       <c r="R16">
-        <v>0.6376811594202898</v>
+        <v>0.62559241706161139</v>
       </c>
       <c r="S16">
-        <v>0.70503597122302153</v>
+        <v>0.68141592920353977</v>
       </c>
       <c r="T16">
-        <v>0.64596273291925466</v>
+        <v>0.64444444444444449</v>
       </c>
       <c r="U16">
-        <v>0.65131578947368418</v>
+        <v>0.65020576131687247</v>
       </c>
       <c r="V16">
-        <v>0.60919540229885061</v>
+        <v>0.62264150943396224</v>
       </c>
       <c r="W16">
-        <v>0.57407407407407407</v>
+        <v>0.59523809523809523</v>
       </c>
       <c r="X16">
-        <v>0.60843373493975905</v>
+        <v>0.609375</v>
       </c>
       <c r="Y16">
         <v>0.625</v>
       </c>
       <c r="Z16">
-        <v>0.61349693251533743</v>
+        <v>0.61133603238866396</v>
       </c>
       <c r="AA16">
-        <v>0.55029585798816572</v>
+        <v>0.54863813229571989</v>
       </c>
       <c r="AB16">
         <v>0.70175438596491224</v>
       </c>
       <c r="AC16">
-        <v>0.57647058823529407</v>
+        <v>0.5791505791505791</v>
       </c>
       <c r="AD16">
-        <v>0.7720588235294118</v>
+        <v>0.75238095238095237</v>
       </c>
       <c r="AE16">
-        <v>0.74566473988439308</v>
+        <v>0.74524714828897343</v>
       </c>
       <c r="AF16">
-        <v>0.71</v>
+        <v>0.68586387434554974</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -2150,49 +2150,49 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.89166666666666672</v>
+        <v>0.91578947368421049</v>
       </c>
       <c r="C18">
-        <v>0.76136363636363635</v>
+        <v>0.77564102564102566</v>
       </c>
       <c r="D18">
-        <v>0.71590909090909094</v>
+        <v>0.68354430379746833</v>
       </c>
       <c r="E18">
-        <v>0.75294117647058822</v>
+        <v>0.7814569536423841</v>
       </c>
       <c r="F18">
-        <v>0.72941176470588232</v>
+        <v>0.73248407643312097</v>
       </c>
       <c r="G18">
-        <v>0.92045454545454541</v>
+        <v>0.92546583850931674</v>
       </c>
       <c r="H18">
-        <v>0.82222222222222219</v>
+        <v>0.84057971014492749</v>
       </c>
       <c r="I18">
-        <v>0.75912408759124084</v>
+        <v>0.71904761904761905</v>
       </c>
       <c r="J18">
-        <v>0.86776859504132231</v>
+        <v>0.86387434554973819</v>
       </c>
       <c r="K18">
-        <v>0.84251968503937003</v>
+        <v>0.7989690721649485</v>
       </c>
       <c r="L18">
-        <v>0.76642335766423353</v>
+        <v>0.76076555023923442</v>
       </c>
       <c r="M18">
-        <v>0.75555555555555554</v>
+        <v>0.75362318840579712</v>
       </c>
       <c r="N18">
-        <v>0.79562043795620441</v>
+        <v>0.79326923076923073</v>
       </c>
       <c r="O18">
-        <v>0.84297520661157022</v>
+        <v>0.83597883597883593</v>
       </c>
       <c r="P18">
-        <v>0.6376811594202898</v>
+        <v>0.62559241706161139</v>
       </c>
       <c r="Q18">
         <v>0.84426229508196726</v>
@@ -2201,46 +2201,46 @@
         <v>1</v>
       </c>
       <c r="S18">
-        <v>0.67567567567567566</v>
+        <v>0.62430939226519333</v>
       </c>
       <c r="T18">
-        <v>0.84920634920634919</v>
+        <v>0.84507042253521125</v>
       </c>
       <c r="U18">
-        <v>0.81666666666666665</v>
+        <v>0.82383419689119175</v>
       </c>
       <c r="V18">
-        <v>0.78985507246376807</v>
+        <v>0.80568720379146919</v>
       </c>
       <c r="W18">
-        <v>0.9296875</v>
+        <v>0.92039800995024879</v>
       </c>
       <c r="X18">
-        <v>0.8721804511278195</v>
+        <v>0.87317073170731707</v>
       </c>
       <c r="Y18">
         <v>0.75206611570247939</v>
       </c>
       <c r="Z18">
-        <v>0.7578125</v>
+        <v>0.74226804123711343</v>
       </c>
       <c r="AA18">
-        <v>0.88235294117647056</v>
+        <v>0.8689320388349514</v>
       </c>
       <c r="AB18">
         <v>0.71323529411764708</v>
       </c>
       <c r="AC18">
-        <v>0.91176470588235292</v>
+        <v>0.90821256038647347</v>
       </c>
       <c r="AD18">
-        <v>0.57272727272727275</v>
+        <v>0.57988165680473369</v>
       </c>
       <c r="AE18">
-        <v>0.75182481751824815</v>
+        <v>0.74641148325358853</v>
       </c>
       <c r="AF18">
-        <v>0.84269662921348309</v>
+        <v>0.83950617283950613</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
@@ -2248,97 +2248,97 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.53278688524590168</v>
+        <v>0.54589371980676327</v>
       </c>
       <c r="C19">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D19">
-        <v>0.71052631578947367</v>
+        <v>0.72049689440993792</v>
       </c>
       <c r="E19">
-        <v>0.78378378378378377</v>
+        <v>0.70967741935483875</v>
       </c>
       <c r="F19">
-        <v>0.77027027027027029</v>
+        <v>0.69182389937106914</v>
       </c>
       <c r="G19">
-        <v>0.61038961038961037</v>
+        <v>0.57926829268292679</v>
       </c>
       <c r="H19">
-        <v>0.64179104477611937</v>
+        <v>0.62895927601809953</v>
       </c>
       <c r="I19">
-        <v>0.7007299270072993</v>
+        <v>0.7155555555555555</v>
       </c>
       <c r="J19">
-        <v>0.57480314960629919</v>
+        <v>0.58018867924528306</v>
       </c>
       <c r="K19">
-        <v>0.65</v>
+        <v>0.6767676767676768</v>
       </c>
       <c r="L19">
-        <v>0.62318840579710144</v>
+        <v>0.6294642857142857</v>
       </c>
       <c r="M19">
-        <v>0.65441176470588236</v>
+        <v>0.64414414414414412</v>
       </c>
       <c r="N19">
-        <v>0.65942028985507251</v>
+        <v>0.64125560538116588</v>
       </c>
       <c r="O19">
-        <v>0.62992125984251968</v>
+        <v>0.62019230769230771</v>
       </c>
       <c r="P19">
-        <v>0.70503597122302153</v>
+        <v>0.68141592920353977</v>
       </c>
       <c r="Q19">
         <v>0.61111111111111116</v>
       </c>
       <c r="R19">
-        <v>0.67567567567567566</v>
+        <v>0.62430939226519333</v>
       </c>
       <c r="S19">
         <v>1</v>
       </c>
       <c r="T19">
-        <v>0.61111111111111116</v>
+        <v>0.60139860139860135</v>
       </c>
       <c r="U19">
-        <v>0.66949152542372881</v>
+        <v>0.67475728155339809</v>
       </c>
       <c r="V19">
-        <v>0.58273381294964033</v>
+        <v>0.58590308370044053</v>
       </c>
       <c r="W19">
-        <v>0.59090909090909094</v>
+        <v>0.59360730593607303</v>
       </c>
       <c r="X19">
-        <v>0.56818181818181823</v>
+        <v>0.58447488584474883</v>
       </c>
       <c r="Y19">
         <v>0.58399999999999996</v>
       </c>
       <c r="Z19">
-        <v>0.65116279069767447</v>
+        <v>0.68571428571428572</v>
       </c>
       <c r="AA19">
-        <v>0.61194029850746268</v>
+        <v>0.61363636363636365</v>
       </c>
       <c r="AB19">
         <v>0.75182481751824815</v>
       </c>
       <c r="AC19">
-        <v>0.58823529411764708</v>
+        <v>0.59459459459459463</v>
       </c>
       <c r="AD19">
-        <v>0.82352941176470584</v>
+        <v>0.83769633507853403</v>
       </c>
       <c r="AE19">
-        <v>0.71739130434782605</v>
+        <v>0.67555555555555558</v>
       </c>
       <c r="AF19">
-        <v>0.59740259740259738</v>
+        <v>0.59393939393939399</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
@@ -2346,97 +2346,97 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.86111111111111116</v>
+        <v>0.85093167701863359</v>
       </c>
       <c r="C20">
-        <v>0.76344086021505375</v>
+        <v>0.77272727272727271</v>
       </c>
       <c r="D20">
-        <v>0.73404255319148937</v>
+        <v>0.73451327433628322</v>
       </c>
       <c r="E20">
-        <v>0.7752808988764045</v>
+        <v>0.79439252336448596</v>
       </c>
       <c r="F20">
-        <v>0.7528089887640449</v>
+        <v>0.7570093457943925</v>
       </c>
       <c r="G20">
-        <v>0.80645161290322576</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H20">
-        <v>0.82692307692307687</v>
+        <v>0.82857142857142863</v>
       </c>
       <c r="I20">
-        <v>0.79874213836477992</v>
+        <v>0.7865168539325843</v>
       </c>
       <c r="J20">
-        <v>0.852112676056338</v>
+        <v>0.85</v>
       </c>
       <c r="K20">
-        <v>0.8380281690140845</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="L20">
-        <v>0.78125</v>
+        <v>0.7865168539325843</v>
       </c>
       <c r="M20">
-        <v>0.79746835443037978</v>
+        <v>0.77966101694915257</v>
       </c>
       <c r="N20">
-        <v>0.76729559748427678</v>
+        <v>0.7584269662921348</v>
       </c>
       <c r="O20">
-        <v>0.88111888111888115</v>
+        <v>0.88198757763975155</v>
       </c>
       <c r="P20">
-        <v>0.64596273291925466</v>
+        <v>0.64444444444444449</v>
       </c>
       <c r="Q20">
         <v>0.84827586206896555</v>
       </c>
       <c r="R20">
-        <v>0.84920634920634919</v>
+        <v>0.84507042253521125</v>
       </c>
       <c r="S20">
-        <v>0.61111111111111116</v>
+        <v>0.60139860139860135</v>
       </c>
       <c r="T20">
         <v>1</v>
       </c>
       <c r="U20">
-        <v>0.80575539568345322</v>
+        <v>0.79113924050632911</v>
       </c>
       <c r="V20">
-        <v>0.80745341614906829</v>
+        <v>0.8</v>
       </c>
       <c r="W20">
-        <v>0.83333333333333337</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="X20">
-        <v>0.85620915032679734</v>
+        <v>0.84883720930232553</v>
       </c>
       <c r="Y20">
         <v>0.75714285714285712</v>
       </c>
       <c r="Z20">
-        <v>0.78064516129032258</v>
+        <v>0.76878612716763006</v>
       </c>
       <c r="AA20">
-        <v>0.87820512820512819</v>
+        <v>0.87356321839080464</v>
       </c>
       <c r="AB20">
         <v>0.689873417721519</v>
       </c>
       <c r="AC20">
-        <v>0.84177215189873422</v>
+        <v>0.84745762711864403</v>
       </c>
       <c r="AD20">
-        <v>0.59677419354838712</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="AE20">
-        <v>0.8</v>
+        <v>0.7808988764044944</v>
       </c>
       <c r="AF20">
-        <v>0.85106382978723405</v>
+        <v>0.84070796460176989</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
@@ -2444,97 +2444,97 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.82170542635658916</v>
+        <v>0.81192660550458717</v>
       </c>
       <c r="C21">
-        <v>0.72499999999999998</v>
+        <v>0.72560975609756095</v>
       </c>
       <c r="D21">
-        <v>0.75</v>
+        <v>0.73372781065088755</v>
       </c>
       <c r="E21">
-        <v>0.75324675324675328</v>
+        <v>0.77018633540372672</v>
       </c>
       <c r="F21">
-        <v>0.7142857142857143</v>
+        <v>0.7168674698795181</v>
       </c>
       <c r="G21">
-        <v>0.85</v>
+        <v>0.83040935672514615</v>
       </c>
       <c r="H21">
-        <v>0.84246575342465757</v>
+        <v>0.86497890295358648</v>
       </c>
       <c r="I21">
-        <v>0.8</v>
+        <v>0.77272727272727271</v>
       </c>
       <c r="J21">
-        <v>0.79230769230769227</v>
+        <v>0.81278538812785384</v>
       </c>
       <c r="K21">
-        <v>0.81538461538461537</v>
+        <v>0.77830188679245282</v>
       </c>
       <c r="L21">
-        <v>0.81456953642384111</v>
+        <v>0.81327800829875518</v>
       </c>
       <c r="M21">
-        <v>0.79865771812080533</v>
+        <v>0.76569037656903771</v>
       </c>
       <c r="N21">
-        <v>0.79333333333333333</v>
+        <v>0.78242677824267781</v>
       </c>
       <c r="O21">
-        <v>0.78358208955223885</v>
+        <v>0.79908675799086759</v>
       </c>
       <c r="P21">
-        <v>0.65131578947368418</v>
+        <v>0.65020576131687247</v>
       </c>
       <c r="Q21">
         <v>0.75735294117647056</v>
       </c>
       <c r="R21">
-        <v>0.81666666666666665</v>
+        <v>0.82383419689119175</v>
       </c>
       <c r="S21">
-        <v>0.66949152542372881</v>
+        <v>0.67475728155339809</v>
       </c>
       <c r="T21">
-        <v>0.80575539568345322</v>
+        <v>0.79113924050632911</v>
       </c>
       <c r="U21">
         <v>1</v>
       </c>
       <c r="V21">
-        <v>0.77631578947368418</v>
+        <v>0.77049180327868849</v>
       </c>
       <c r="W21">
-        <v>0.80714285714285716</v>
+        <v>0.81385281385281383</v>
       </c>
       <c r="X21">
-        <v>0.84459459459459463</v>
+        <v>0.83682008368200833</v>
       </c>
       <c r="Y21">
         <v>0.81538461538461537</v>
       </c>
       <c r="Z21">
-        <v>0.79577464788732399</v>
+        <v>0.75770925110132159</v>
       </c>
       <c r="AA21">
-        <v>0.79729729729729726</v>
+        <v>0.81856540084388185</v>
       </c>
       <c r="AB21">
         <v>0.77333333333333332</v>
       </c>
       <c r="AC21">
-        <v>0.80405405405405406</v>
+        <v>0.81932773109243695</v>
       </c>
       <c r="AD21">
-        <v>0.62608695652173918</v>
+        <v>0.63684210526315788</v>
       </c>
       <c r="AE21">
-        <v>0.7814569536423841</v>
+        <v>0.77272727272727271</v>
       </c>
       <c r="AF21">
-        <v>0.8271604938271605</v>
+        <v>0.79768786127167635</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
@@ -2542,97 +2542,97 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.79470198675496684</v>
+        <v>0.8125</v>
       </c>
       <c r="C22">
-        <v>0.76767676767676762</v>
+        <v>0.7595628415300546</v>
       </c>
       <c r="D22">
-        <v>0.74747474747474751</v>
+        <v>0.72340425531914898</v>
       </c>
       <c r="E22">
-        <v>0.71578947368421053</v>
+        <v>0.71508379888268159</v>
       </c>
       <c r="F22">
-        <v>0.74736842105263157</v>
+        <v>0.70108695652173914</v>
       </c>
       <c r="G22">
-        <v>0.79797979797979801</v>
+        <v>0.82105263157894737</v>
       </c>
       <c r="H22">
-        <v>0.73809523809523814</v>
+        <v>0.76447876447876451</v>
       </c>
       <c r="I22">
-        <v>0.75</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="J22">
-        <v>0.79470198675496684</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="K22">
-        <v>0.74342105263157898</v>
+        <v>0.73931623931623935</v>
       </c>
       <c r="L22">
-        <v>0.76878612716763006</v>
+        <v>0.77186311787072248</v>
       </c>
       <c r="M22">
-        <v>0.76608187134502925</v>
+        <v>0.75478927203065138</v>
       </c>
       <c r="N22">
-        <v>0.76162790697674421</v>
+        <v>0.75478927203065138</v>
       </c>
       <c r="O22">
-        <v>0.79354838709677422</v>
+        <v>0.79583333333333328</v>
       </c>
       <c r="P22">
-        <v>0.60919540229885061</v>
+        <v>0.62264150943396224</v>
       </c>
       <c r="Q22">
         <v>0.76923076923076927</v>
       </c>
       <c r="R22">
-        <v>0.78985507246376807</v>
+        <v>0.80568720379146919</v>
       </c>
       <c r="S22">
-        <v>0.58273381294964033</v>
+        <v>0.58590308370044053</v>
       </c>
       <c r="T22">
-        <v>0.80745341614906829</v>
+        <v>0.8</v>
       </c>
       <c r="U22">
-        <v>0.77631578947368418</v>
+        <v>0.77049180327868849</v>
       </c>
       <c r="V22">
         <v>1</v>
       </c>
       <c r="W22">
-        <v>0.80864197530864201</v>
+        <v>0.81422924901185767</v>
       </c>
       <c r="X22">
-        <v>0.82530120481927716</v>
+        <v>0.84824902723735407</v>
       </c>
       <c r="Y22">
         <v>0.76315789473684215</v>
       </c>
       <c r="Z22">
-        <v>0.77300613496932513</v>
+        <v>0.75403225806451613</v>
       </c>
       <c r="AA22">
-        <v>0.81656804733727806</v>
+        <v>0.79069767441860461</v>
       </c>
       <c r="AB22">
         <v>0.70760233918128657</v>
       </c>
       <c r="AC22">
-        <v>0.80588235294117649</v>
+        <v>0.82307692307692304</v>
       </c>
       <c r="AD22">
-        <v>0.57352941176470584</v>
+        <v>0.58767772511848337</v>
       </c>
       <c r="AE22">
-        <v>0.7052023121387283</v>
+        <v>0.71212121212121215</v>
       </c>
       <c r="AF22">
-        <v>0.84</v>
+        <v>0.828125</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
@@ -2640,97 +2640,97 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.8920863309352518</v>
+        <v>0.88105726872246692</v>
       </c>
       <c r="C23">
-        <v>0.69318181818181823</v>
+        <v>0.77192982456140347</v>
       </c>
       <c r="D23">
-        <v>0.64772727272727271</v>
+        <v>0.6875</v>
       </c>
       <c r="E23">
-        <v>0.7142857142857143</v>
+        <v>0.78443113772455086</v>
       </c>
       <c r="F23">
-        <v>0.6785714285714286</v>
+        <v>0.72674418604651159</v>
       </c>
       <c r="G23">
-        <v>0.9213483146067416</v>
+        <v>0.93296089385474856</v>
       </c>
       <c r="H23">
-        <v>0.82692307692307687</v>
+        <v>0.84552845528455289</v>
       </c>
       <c r="I23">
-        <v>0.72670807453416153</v>
+        <v>0.71825396825396826</v>
       </c>
       <c r="J23">
-        <v>0.87333333333333329</v>
+        <v>0.87394957983193278</v>
       </c>
       <c r="K23">
-        <v>0.82978723404255317</v>
+        <v>0.78828828828828834</v>
       </c>
       <c r="L23">
-        <v>0.79012345679012341</v>
+        <v>0.79681274900398402</v>
       </c>
       <c r="M23">
-        <v>0.74213836477987416</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="N23">
-        <v>0.77018633540372672</v>
+        <v>0.77510040160642568</v>
       </c>
       <c r="O23">
-        <v>0.83766233766233766</v>
+        <v>0.84453781512605042</v>
       </c>
       <c r="P23">
-        <v>0.57407407407407407</v>
+        <v>0.59523809523809523</v>
       </c>
       <c r="Q23">
         <v>0.81632653061224492</v>
       </c>
       <c r="R23">
-        <v>0.9296875</v>
+        <v>0.92039800995024879</v>
       </c>
       <c r="S23">
-        <v>0.59090909090909094</v>
+        <v>0.59360730593607303</v>
       </c>
       <c r="T23">
-        <v>0.83333333333333337</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="U23">
-        <v>0.80714285714285716</v>
+        <v>0.81385281385281383</v>
       </c>
       <c r="V23">
-        <v>0.80864197530864201</v>
+        <v>0.81422924901185767</v>
       </c>
       <c r="W23">
         <v>1</v>
       </c>
       <c r="X23">
-        <v>0.87179487179487181</v>
+        <v>0.86991869918699183</v>
       </c>
       <c r="Y23">
         <v>0.81333333333333335</v>
       </c>
       <c r="Z23">
-        <v>0.76158940397350994</v>
+        <v>0.74893617021276593</v>
       </c>
       <c r="AA23">
-        <v>0.87898089171974525</v>
+        <v>0.88163265306122451</v>
       </c>
       <c r="AB23">
         <v>0.66874999999999996</v>
       </c>
       <c r="AC23">
-        <v>0.92500000000000004</v>
+        <v>0.92369477911646591</v>
       </c>
       <c r="AD23">
-        <v>0.55555555555555558</v>
+        <v>0.57619047619047614</v>
       </c>
       <c r="AE23">
-        <v>0.70807453416149069</v>
+        <v>0.73306772908366535</v>
       </c>
       <c r="AF23">
-        <v>0.8089887640449438</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
@@ -2738,70 +2738,70 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.90209790209790208</v>
+        <v>0.91341991341991347</v>
       </c>
       <c r="C24">
-        <v>0.78260869565217395</v>
+        <v>0.77142857142857146</v>
       </c>
       <c r="D24">
-        <v>0.69565217391304346</v>
+        <v>0.70718232044198892</v>
       </c>
       <c r="E24">
-        <v>0.75</v>
+        <v>0.75438596491228072</v>
       </c>
       <c r="F24">
-        <v>0.71590909090909094</v>
+        <v>0.70454545454545459</v>
       </c>
       <c r="G24">
-        <v>0.90217391304347827</v>
+        <v>0.88461538461538458</v>
       </c>
       <c r="H24">
-        <v>0.83750000000000002</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="I24">
-        <v>0.76219512195121952</v>
+        <v>0.74901960784313726</v>
       </c>
       <c r="J24">
-        <v>0.89795918367346939</v>
+        <v>0.88085106382978728</v>
       </c>
       <c r="K24">
-        <v>0.88275862068965516</v>
+        <v>0.82743362831858402</v>
       </c>
       <c r="L24">
-        <v>0.78181818181818186</v>
+        <v>0.79527559055118113</v>
       </c>
       <c r="M24">
-        <v>0.80981595092024539</v>
+        <v>0.79365079365079361</v>
       </c>
       <c r="N24">
-        <v>0.79268292682926833</v>
+        <v>0.78968253968253965</v>
       </c>
       <c r="O24">
-        <v>0.87333333333333329</v>
+        <v>0.8595744680851064</v>
       </c>
       <c r="P24">
-        <v>0.60843373493975905</v>
+        <v>0.609375</v>
       </c>
       <c r="Q24">
         <v>0.82550335570469802</v>
       </c>
       <c r="R24">
-        <v>0.8721804511278195</v>
+        <v>0.87317073170731707</v>
       </c>
       <c r="S24">
-        <v>0.56818181818181823</v>
+        <v>0.58447488584474883</v>
       </c>
       <c r="T24">
-        <v>0.85620915032679734</v>
+        <v>0.84883720930232553</v>
       </c>
       <c r="U24">
-        <v>0.84459459459459463</v>
+        <v>0.83682008368200833</v>
       </c>
       <c r="V24">
-        <v>0.82530120481927716</v>
+        <v>0.84824902723735407</v>
       </c>
       <c r="W24">
-        <v>0.87179487179487181</v>
+        <v>0.86991869918699183</v>
       </c>
       <c r="X24">
         <v>1</v>
@@ -2810,25 +2810,25 @@
         <v>0.8231292517006803</v>
       </c>
       <c r="Z24">
-        <v>0.78343949044585992</v>
+        <v>0.78008298755186722</v>
       </c>
       <c r="AA24">
-        <v>0.86956521739130432</v>
+        <v>0.84738955823293172</v>
       </c>
       <c r="AB24">
         <v>0.69938650306748462</v>
       </c>
       <c r="AC24">
-        <v>0.88271604938271608</v>
+        <v>0.88844621513944222</v>
       </c>
       <c r="AD24">
-        <v>0.5572519083969466</v>
+        <v>0.59223300970873782</v>
       </c>
       <c r="AE24">
-        <v>0.73939393939393938</v>
+        <v>0.75294117647058822</v>
       </c>
       <c r="AF24">
-        <v>0.88172043010752688</v>
+        <v>0.86956521739130432</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -2934,73 +2934,73 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.79432624113475181</v>
+        <v>0.78125</v>
       </c>
       <c r="C26">
-        <v>0.87628865979381443</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="D26">
-        <v>0.80412371134020622</v>
+        <v>0.77094972067039103</v>
       </c>
       <c r="E26">
-        <v>0.84946236559139787</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="F26">
-        <v>0.82795698924731187</v>
+        <v>0.75568181818181823</v>
       </c>
       <c r="G26">
-        <v>0.75257731958762886</v>
+        <v>0.72375690607734811</v>
       </c>
       <c r="H26">
-        <v>0.76729559748427678</v>
+        <v>0.74485596707818935</v>
       </c>
       <c r="I26">
-        <v>0.78260869565217395</v>
+        <v>0.76829268292682928</v>
       </c>
       <c r="J26">
-        <v>0.75342465753424659</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="K26">
-        <v>0.80419580419580416</v>
+        <v>0.78082191780821919</v>
       </c>
       <c r="L26">
-        <v>0.7407407407407407</v>
+        <v>0.73877551020408161</v>
       </c>
       <c r="M26">
-        <v>0.73124999999999996</v>
+        <v>0.72427983539094654</v>
       </c>
       <c r="N26">
-        <v>0.77018633540372672</v>
+        <v>0.73662551440329216</v>
       </c>
       <c r="O26">
-        <v>0.72413793103448276</v>
+        <v>0.72197309417040356</v>
       </c>
       <c r="P26">
-        <v>0.61349693251533743</v>
+        <v>0.61133603238866396</v>
       </c>
       <c r="Q26">
         <v>0.77181208053691275</v>
       </c>
       <c r="R26">
-        <v>0.7578125</v>
+        <v>0.74226804123711343</v>
       </c>
       <c r="S26">
-        <v>0.65116279069767447</v>
+        <v>0.68571428571428572</v>
       </c>
       <c r="T26">
-        <v>0.78064516129032258</v>
+        <v>0.76878612716763006</v>
       </c>
       <c r="U26">
-        <v>0.79577464788732399</v>
+        <v>0.75770925110132159</v>
       </c>
       <c r="V26">
-        <v>0.77300613496932513</v>
+        <v>0.75403225806451613</v>
       </c>
       <c r="W26">
-        <v>0.76158940397350994</v>
+        <v>0.74893617021276593</v>
       </c>
       <c r="X26">
-        <v>0.78343949044585992</v>
+        <v>0.78008298755186722</v>
       </c>
       <c r="Y26">
         <v>0.82191780821917804</v>
@@ -3009,22 +3009,22 @@
         <v>1</v>
       </c>
       <c r="AA26">
-        <v>0.79746835443037978</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="AB26">
         <v>0.75624999999999998</v>
       </c>
       <c r="AC26">
-        <v>0.76875000000000004</v>
+        <v>0.75510204081632648</v>
       </c>
       <c r="AD26">
-        <v>0.57480314960629919</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="AE26">
-        <v>0.73456790123456794</v>
+        <v>0.72764227642276424</v>
       </c>
       <c r="AF26">
-        <v>0.76530612244897955</v>
+        <v>0.72677595628415304</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
@@ -3032,79 +3032,79 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.89726027397260277</v>
+        <v>0.86266094420600858</v>
       </c>
       <c r="C27">
-        <v>0.75510204081632648</v>
+        <v>0.75418994413407825</v>
       </c>
       <c r="D27">
-        <v>0.67346938775510201</v>
+        <v>0.66847826086956519</v>
       </c>
       <c r="E27">
-        <v>0.72631578947368425</v>
+        <v>0.7344632768361582</v>
       </c>
       <c r="F27">
-        <v>0.7021276595744681</v>
+        <v>0.7055555555555556</v>
       </c>
       <c r="G27">
-        <v>0.88775510204081631</v>
+        <v>0.87634408602150538</v>
       </c>
       <c r="H27">
-        <v>0.82317073170731703</v>
+        <v>0.82936507936507942</v>
       </c>
       <c r="I27">
-        <v>0.73652694610778446</v>
+        <v>0.69921875</v>
       </c>
       <c r="J27">
-        <v>0.89795918367346939</v>
+        <v>0.87606837606837606</v>
       </c>
       <c r="K27">
-        <v>0.86</v>
+        <v>0.83406113537117899</v>
       </c>
       <c r="L27">
-        <v>0.76190476190476186</v>
+        <v>0.78431372549019607</v>
       </c>
       <c r="M27">
-        <v>0.74096385542168675</v>
+        <v>0.71541501976284583</v>
       </c>
       <c r="N27">
-        <v>0.77844311377245512</v>
+        <v>0.77470355731225293</v>
       </c>
       <c r="O27">
-        <v>0.85430463576158944</v>
+        <v>0.83261802575107291</v>
       </c>
       <c r="P27">
-        <v>0.55029585798816572</v>
+        <v>0.54863813229571989</v>
       </c>
       <c r="Q27">
         <v>0.82781456953642385</v>
       </c>
       <c r="R27">
-        <v>0.88235294117647056</v>
+        <v>0.8689320388349514</v>
       </c>
       <c r="S27">
-        <v>0.61194029850746268</v>
+        <v>0.61363636363636365</v>
       </c>
       <c r="T27">
-        <v>0.87820512820512819</v>
+        <v>0.87356321839080464</v>
       </c>
       <c r="U27">
-        <v>0.79729729729729726</v>
+        <v>0.81856540084388185</v>
       </c>
       <c r="V27">
-        <v>0.81656804733727806</v>
+        <v>0.79069767441860461</v>
       </c>
       <c r="W27">
-        <v>0.87898089171974525</v>
+        <v>0.88163265306122451</v>
       </c>
       <c r="X27">
-        <v>0.86956521739130432</v>
+        <v>0.84738955823293172</v>
       </c>
       <c r="Y27">
         <v>0.76</v>
       </c>
       <c r="Z27">
-        <v>0.79746835443037978</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="AA27">
         <v>1</v>
@@ -3113,16 +3113,16 @@
         <v>0.7168674698795181</v>
       </c>
       <c r="AC27">
-        <v>0.90303030303030307</v>
+        <v>0.88492063492063489</v>
       </c>
       <c r="AD27">
-        <v>0.53787878787878785</v>
+        <v>0.56372549019607843</v>
       </c>
       <c r="AE27">
-        <v>0.74404761904761907</v>
+        <v>0.734375</v>
       </c>
       <c r="AF27">
-        <v>0.82828282828282829</v>
+        <v>0.77659574468085102</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
@@ -3228,82 +3228,82 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.891156462585034</v>
+        <v>0.88461538461538458</v>
       </c>
       <c r="C29">
-        <v>0.69791666666666663</v>
+        <v>0.7303370786516854</v>
       </c>
       <c r="D29">
-        <v>0.65625</v>
+        <v>0.65573770491803274</v>
       </c>
       <c r="E29">
-        <v>0.70652173913043481</v>
+        <v>0.73142857142857143</v>
       </c>
       <c r="F29">
-        <v>0.67391304347826086</v>
+        <v>0.69273743016759781</v>
       </c>
       <c r="G29">
-        <v>0.875</v>
+        <v>0.9027027027027027</v>
       </c>
       <c r="H29">
-        <v>0.83030303030303032</v>
+        <v>0.85433070866141736</v>
       </c>
       <c r="I29">
-        <v>0.75147928994082835</v>
+        <v>0.73359073359073357</v>
       </c>
       <c r="J29">
-        <v>0.87248322147651003</v>
+        <v>0.8728813559322034</v>
       </c>
       <c r="K29">
-        <v>0.81756756756756754</v>
+        <v>0.80263157894736847</v>
       </c>
       <c r="L29">
-        <v>0.78235294117647058</v>
+        <v>0.79844961240310075</v>
       </c>
       <c r="M29">
-        <v>0.74850299401197606</v>
+        <v>0.72941176470588232</v>
       </c>
       <c r="N29">
-        <v>0.7751479289940828</v>
+        <v>0.76953125</v>
       </c>
       <c r="O29">
-        <v>0.85526315789473684</v>
+        <v>0.84680851063829787</v>
       </c>
       <c r="P29">
-        <v>0.57647058823529407</v>
+        <v>0.5791505791505791</v>
       </c>
       <c r="Q29">
         <v>0.83552631578947367</v>
       </c>
       <c r="R29">
-        <v>0.91176470588235292</v>
+        <v>0.90821256038647347</v>
       </c>
       <c r="S29">
-        <v>0.58823529411764708</v>
+        <v>0.59459459459459463</v>
       </c>
       <c r="T29">
-        <v>0.84177215189873422</v>
+        <v>0.84745762711864403</v>
       </c>
       <c r="U29">
-        <v>0.80405405405405406</v>
+        <v>0.81932773109243695</v>
       </c>
       <c r="V29">
-        <v>0.80588235294117649</v>
+        <v>0.82307692307692304</v>
       </c>
       <c r="W29">
-        <v>0.92500000000000004</v>
+        <v>0.92369477911646591</v>
       </c>
       <c r="X29">
-        <v>0.88271604938271608</v>
+        <v>0.88844621513944222</v>
       </c>
       <c r="Y29">
         <v>0.8</v>
       </c>
       <c r="Z29">
-        <v>0.76875000000000004</v>
+        <v>0.75510204081632648</v>
       </c>
       <c r="AA29">
-        <v>0.90303030303030307</v>
+        <v>0.88492063492063489</v>
       </c>
       <c r="AB29">
         <v>0.6964285714285714</v>
@@ -3312,13 +3312,13 @@
         <v>1</v>
       </c>
       <c r="AD29">
-        <v>0.55147058823529416</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AE29">
-        <v>0.72781065088757402</v>
+        <v>0.72868217054263562</v>
       </c>
       <c r="AF29">
-        <v>0.79381443298969068</v>
+        <v>0.80748663101604279</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
@@ -3326,97 +3326,97 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.47457627118644069</v>
+        <v>0.52631578947368418</v>
       </c>
       <c r="C30">
-        <v>0.73529411764705888</v>
+        <v>0.65441176470588236</v>
       </c>
       <c r="D30">
-        <v>0.72058823529411764</v>
+        <v>0.70921985815602839</v>
       </c>
       <c r="E30">
-        <v>0.71641791044776115</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F30">
-        <v>0.765625</v>
+        <v>0.68613138686131392</v>
       </c>
       <c r="G30">
-        <v>0.60869565217391308</v>
+        <v>0.58741258741258739</v>
       </c>
       <c r="H30">
-        <v>0.59848484848484851</v>
+        <v>0.60679611650485432</v>
       </c>
       <c r="I30">
-        <v>0.68888888888888888</v>
+        <v>0.69047619047619047</v>
       </c>
       <c r="J30">
-        <v>0.53174603174603174</v>
+        <v>0.55778894472361806</v>
       </c>
       <c r="K30">
-        <v>0.55555555555555558</v>
+        <v>0.61827956989247312</v>
       </c>
       <c r="L30">
-        <v>0.625</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="M30">
-        <v>0.66165413533834583</v>
+        <v>0.66990291262135926</v>
       </c>
       <c r="N30">
-        <v>0.64444444444444449</v>
+        <v>0.6376811594202898</v>
       </c>
       <c r="O30">
-        <v>0.5968992248062015</v>
+        <v>0.61616161616161613</v>
       </c>
       <c r="P30">
-        <v>0.7720588235294118</v>
+        <v>0.75238095238095237</v>
       </c>
       <c r="Q30">
         <v>0.56451612903225812</v>
       </c>
       <c r="R30">
-        <v>0.57272727272727275</v>
+        <v>0.57988165680473369</v>
       </c>
       <c r="S30">
-        <v>0.82352941176470584</v>
+        <v>0.83769633507853403</v>
       </c>
       <c r="T30">
-        <v>0.59677419354838712</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="U30">
-        <v>0.62608695652173918</v>
+        <v>0.63684210526315788</v>
       </c>
       <c r="V30">
-        <v>0.57352941176470584</v>
+        <v>0.58767772511848337</v>
       </c>
       <c r="W30">
-        <v>0.55555555555555558</v>
+        <v>0.57619047619047614</v>
       </c>
       <c r="X30">
-        <v>0.5572519083969466</v>
+        <v>0.59223300970873782</v>
       </c>
       <c r="Y30">
         <v>0.59055118110236215</v>
       </c>
       <c r="Z30">
-        <v>0.57480314960629919</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="AA30">
-        <v>0.53787878787878785</v>
+        <v>0.56372549019607843</v>
       </c>
       <c r="AB30">
         <v>0.72592592592592597</v>
       </c>
       <c r="AC30">
-        <v>0.55147058823529416</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AD30">
         <v>1</v>
       </c>
       <c r="AE30">
-        <v>0.70370370370370372</v>
+        <v>0.68571428571428572</v>
       </c>
       <c r="AF30">
-        <v>0.60869565217391308</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
@@ -3424,97 +3424,97 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.70666666666666667</v>
+        <v>0.73109243697478987</v>
       </c>
       <c r="C31">
-        <v>0.79797979797979801</v>
+        <v>0.76373626373626369</v>
       </c>
       <c r="D31">
-        <v>0.78787878787878785</v>
+        <v>0.73796791443850263</v>
       </c>
       <c r="E31">
-        <v>0.75789473684210529</v>
+        <v>0.7471910112359551</v>
       </c>
       <c r="F31">
-        <v>0.76842105263157889</v>
+        <v>0.7595628415300546</v>
       </c>
       <c r="G31">
-        <v>0.73737373737373735</v>
+        <v>0.75132275132275128</v>
       </c>
       <c r="H31">
-        <v>0.80239520958083832</v>
+        <v>0.79377431906614782</v>
       </c>
       <c r="I31">
-        <v>0.80116959064327486</v>
+        <v>0.77862595419847325</v>
       </c>
       <c r="J31">
-        <v>0.74</v>
+        <v>0.73949579831932777</v>
       </c>
       <c r="K31">
-        <v>0.71523178807947019</v>
+        <v>0.68965517241379315</v>
       </c>
       <c r="L31">
-        <v>0.76162790697674421</v>
+        <v>0.76245210727969348</v>
       </c>
       <c r="M31">
-        <v>0.83529411764705885</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N31">
-        <v>0.79532163742690054</v>
+        <v>0.78764478764478763</v>
       </c>
       <c r="O31">
-        <v>0.7857142857142857</v>
+        <v>0.80672268907563027</v>
       </c>
       <c r="P31">
-        <v>0.74566473988439308</v>
+        <v>0.74524714828897343</v>
       </c>
       <c r="Q31">
         <v>0.75483870967741939</v>
       </c>
       <c r="R31">
-        <v>0.75182481751824815</v>
+        <v>0.74641148325358853</v>
       </c>
       <c r="S31">
-        <v>0.71739130434782605</v>
+        <v>0.67555555555555558</v>
       </c>
       <c r="T31">
-        <v>0.8</v>
+        <v>0.7808988764044944</v>
       </c>
       <c r="U31">
-        <v>0.7814569536423841</v>
+        <v>0.77272727272727271</v>
       </c>
       <c r="V31">
-        <v>0.7052023121387283</v>
+        <v>0.71212121212121215</v>
       </c>
       <c r="W31">
-        <v>0.70807453416149069</v>
+        <v>0.73306772908366535</v>
       </c>
       <c r="X31">
-        <v>0.73939393939393938</v>
+        <v>0.75294117647058822</v>
       </c>
       <c r="Y31">
         <v>0.72847682119205293</v>
       </c>
       <c r="Z31">
-        <v>0.73456790123456794</v>
+        <v>0.72764227642276424</v>
       </c>
       <c r="AA31">
-        <v>0.74404761904761907</v>
+        <v>0.734375</v>
       </c>
       <c r="AB31">
         <v>0.79411764705882348</v>
       </c>
       <c r="AC31">
-        <v>0.72781065088757402</v>
+        <v>0.72868217054263562</v>
       </c>
       <c r="AD31">
-        <v>0.70370370370370372</v>
+        <v>0.68571428571428572</v>
       </c>
       <c r="AE31">
         <v>1</v>
       </c>
       <c r="AF31">
-        <v>0.84</v>
+        <v>0.80104712041884818</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
@@ -3522,94 +3522,94 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.8651685393258427</v>
+        <v>0.8539325842696629</v>
       </c>
       <c r="C32">
-        <v>0.80808080808080807</v>
+        <v>0.79234972677595628</v>
       </c>
       <c r="D32">
-        <v>0.72727272727272729</v>
+        <v>0.72872340425531912</v>
       </c>
       <c r="E32">
-        <v>0.76842105263157889</v>
+        <v>0.77094972067039103</v>
       </c>
       <c r="F32">
-        <v>0.74736842105263157</v>
+        <v>0.75543478260869568</v>
       </c>
       <c r="G32">
-        <v>0.85858585858585856</v>
+        <v>0.85263157894736841</v>
       </c>
       <c r="H32">
-        <v>0.81818181818181823</v>
+        <v>0.82105263157894737</v>
       </c>
       <c r="I32">
-        <v>0.74747474747474751</v>
+        <v>0.73298429319371727</v>
       </c>
       <c r="J32">
-        <v>0.86046511627906974</v>
+        <v>0.84571428571428575</v>
       </c>
       <c r="K32">
-        <v>0.78125</v>
+        <v>0.7415730337078652</v>
       </c>
       <c r="L32">
-        <v>0.83838383838383834</v>
+        <v>0.80423280423280419</v>
       </c>
       <c r="M32">
-        <v>0.84536082474226804</v>
+        <v>0.82887700534759357</v>
       </c>
       <c r="N32">
-        <v>0.84848484848484851</v>
+        <v>0.80851063829787229</v>
       </c>
       <c r="O32">
-        <v>0.87209302325581395</v>
+        <v>0.85380116959064323</v>
       </c>
       <c r="P32">
-        <v>0.71</v>
+        <v>0.68586387434554974</v>
       </c>
       <c r="Q32">
         <v>0.79569892473118276</v>
       </c>
       <c r="R32">
-        <v>0.84269662921348309</v>
+        <v>0.83950617283950613</v>
       </c>
       <c r="S32">
-        <v>0.59740259740259738</v>
+        <v>0.59393939393939399</v>
       </c>
       <c r="T32">
-        <v>0.85106382978723405</v>
+        <v>0.84070796460176989</v>
       </c>
       <c r="U32">
-        <v>0.8271604938271605</v>
+        <v>0.79768786127167635</v>
       </c>
       <c r="V32">
-        <v>0.84</v>
+        <v>0.828125</v>
       </c>
       <c r="W32">
-        <v>0.8089887640449438</v>
+        <v>0.8</v>
       </c>
       <c r="X32">
-        <v>0.88172043010752688</v>
+        <v>0.86956521739130432</v>
       </c>
       <c r="Y32">
         <v>0.75294117647058822</v>
       </c>
       <c r="Z32">
-        <v>0.76530612244897955</v>
+        <v>0.72677595628415304</v>
       </c>
       <c r="AA32">
-        <v>0.82828282828282829</v>
+        <v>0.77659574468085102</v>
       </c>
       <c r="AB32">
         <v>0.76530612244897955</v>
       </c>
       <c r="AC32">
-        <v>0.79381443298969068</v>
+        <v>0.80748663101604279</v>
       </c>
       <c r="AD32">
-        <v>0.60869565217391308</v>
+        <v>0.625</v>
       </c>
       <c r="AE32">
-        <v>0.84</v>
+        <v>0.80104712041884818</v>
       </c>
       <c r="AF32">
         <v>1</v>
